--- a/BASE_PILOTO.xlsx
+++ b/BASE_PILOTO.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAULO FISCAL\Downloads\PILOTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7310B269-AE87-4E29-A758-4C92683FAFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD377AD-E1C6-4187-ACBB-BB40C5A8B083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{6F1909E8-378C-403E-BE5B-D1B607FE4D4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{48D61041-C605-4BA9-B8CF-D268EFE5FFFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="BASE_PILOTO" sheetId="1" r:id="rId1"/>
+    <sheet name="BASE_PILOTO2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
   <si>
     <t>KG</t>
   </si>
@@ -46,6 +46,12 @@
     <t>Disponível</t>
   </si>
   <si>
+    <t>PICANHA BOV KG TIPO A PROD</t>
+  </si>
+  <si>
+    <t>OSSO PATINHO BOV KG SOL</t>
+  </si>
+  <si>
     <t>OSSO BOV KG PROD</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>COXAO MOLE BOV KG PROD</t>
   </si>
   <si>
+    <t>CONTRAFILE BOV KG PROD</t>
+  </si>
+  <si>
     <t>ARANHA BOV KG PROD</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
     <t>PATINHO BOV KG PROD</t>
   </si>
   <si>
+    <t>FILEZINHO MOCOTO KG PROD</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -143,6 +155,9 @@
   </si>
   <si>
     <t>Embalagem</t>
+  </si>
+  <si>
+    <t>OSSO PATINHO BOV KG PROD</t>
   </si>
   <si>
     <t>CORACAO ALCATRA BOV VACA KG PROD</t>
@@ -158,10 +173,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="###,###,##0.00"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000;\ \-#,##0.0000"/>
-    <numFmt numFmtId="172" formatCode="&quot;Registros: &quot;#,##0."/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="###,###,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000;\ \-#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00_);\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;Registros: &quot;#,##0."/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -231,9 +247,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FFA0A0A0"/>
@@ -244,7 +258,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FFA0A0A0"/>
@@ -260,12 +276,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -273,28 +289,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,1031 +629,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50748B1D-07EF-4332-9E63-9A0331B74D40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F86724D-38C0-4D4F-9A58-C47E4C00CF23}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="K22" sqref="K21:K22"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625"/>
+    <col min="2" max="2" width="8"/>
+    <col min="3" max="3" width="41"/>
+    <col min="4" max="4" width="10.42578125"/>
+    <col min="5" max="5" width="10.7109375"/>
+    <col min="6" max="6" width="9.7109375"/>
+    <col min="7" max="7" width="10.7109375"/>
+    <col min="8" max="8" width="10.28515625"/>
+    <col min="9" max="9" width="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>37</v>
+      <c r="I1" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="10">
-        <v>14756</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="9">
+        <v>8439</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>21.58</v>
+      <c r="E2" s="1">
+        <v>166</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>166</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>11.08888</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="10">
-        <v>14758</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="9">
+        <v>7321</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
-        <v>35.1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>35.1</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>26.52</v>
+      <c r="E3" s="1">
+        <v>411.2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>200</v>
+      </c>
+      <c r="G3" s="12">
+        <v>211.2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7.9999989999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="10">
-        <v>8439</v>
+        <v>35</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7066</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
-        <v>166</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>166</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>11.08888</v>
+      <c r="E4" s="1">
+        <v>109.3</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>109.3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>26.52</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="10">
-        <v>4078</v>
+        <v>35</v>
+      </c>
+      <c r="B5" s="9">
+        <v>7265</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
-        <v>296</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>296</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>27.606424000000001</v>
+      <c r="E5" s="1">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>8.6957579999999997</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="10">
-        <v>4274</v>
+        <v>35</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6009</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
-        <v>515.5</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>515.5</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>22.397158999999998</v>
+      <c r="E6" s="1">
+        <v>291</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>291</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>20.548549999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1847</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="9">
+        <v>274291</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
-        <v>197.5</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>192.5</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>16.058078999999999</v>
+      <c r="E7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="10">
-        <v>7321</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="9">
+        <v>8899</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
-        <v>524.70000000000005</v>
-      </c>
-      <c r="F8" s="9">
-        <v>113.5</v>
-      </c>
-      <c r="G8" s="9">
-        <v>411.2</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>7.9999989999999999</v>
+      <c r="E8" s="1">
+        <v>977</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>977</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7066</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="9">
+        <v>11035</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
-        <v>109.3</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>109.3</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>26.52</v>
+      <c r="E9" s="1">
+        <v>1452.5003999999999</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1452.5003999999999</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="10">
-        <v>6965</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="9">
+        <v>14825</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
         <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>5</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>5</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>34.461385999999997</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="10">
-        <v>14762</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7064</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="7">
-        <v>251.7</v>
-      </c>
-      <c r="F11" s="9">
-        <v>162.4</v>
-      </c>
-      <c r="G11" s="9">
-        <v>89.3</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>33.590000000000003</v>
+      <c r="E11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2550</v>
+        <v>35</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10947</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="7">
-        <v>12.6</v>
-      </c>
-      <c r="F12" s="9">
-        <v>5.3</v>
-      </c>
-      <c r="G12" s="9">
-        <v>7.3</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>30.32</v>
+      <c r="E12" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>23.5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.92695499999999997</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="10">
-        <v>7404</v>
+        <v>35</v>
+      </c>
+      <c r="B13" s="9">
+        <v>275439</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="7">
-        <v>76.275000000000006</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>76.275000000000006</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>17.435939000000001</v>
+      <c r="E13" s="1">
+        <v>217.9</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>217.9</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1228</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10">
-        <v>7265</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="7">
-        <v>211.4</v>
-      </c>
-      <c r="F14" s="9">
-        <v>60</v>
-      </c>
-      <c r="G14" s="9">
-        <v>151.4</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>8.6957579999999997</v>
+      <c r="E14" s="1">
+        <v>6136.8180000000002</v>
+      </c>
+      <c r="F14" s="12">
+        <v>230</v>
+      </c>
+      <c r="G14" s="12">
+        <v>5906.8180000000002</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>23.055081999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="10">
-        <v>14765</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14756</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="7">
-        <v>348.2</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>279.39999999999998</v>
-      </c>
-      <c r="H15" s="11">
-        <v>68.8</v>
-      </c>
-      <c r="I15" s="4">
-        <v>30.270765999999998</v>
+      <c r="E15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>21.58</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="10">
-        <v>14766</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="9">
+        <v>6947</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="7">
-        <v>823.7</v>
-      </c>
-      <c r="F16" s="9">
-        <v>300</v>
-      </c>
-      <c r="G16" s="9">
-        <v>523.70000000000005</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>32.130000000000003</v>
+      <c r="E16" s="1">
+        <v>149</v>
+      </c>
+      <c r="F16" s="12">
+        <v>47.5</v>
+      </c>
+      <c r="G16" s="12">
+        <v>69.8</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>22.579999000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="10">
-        <v>6971</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="9">
+        <v>14758</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="7">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>33.061830999999998</v>
+      <c r="E17" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>35.1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>26.52</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="10">
-        <v>6009</v>
+        <v>35</v>
+      </c>
+      <c r="B18" s="9">
+        <v>4078</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="7">
-        <v>994.9</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>994.9</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>20.548549999999999</v>
+      <c r="E18" s="1">
+        <v>296</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>296</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>27.606424000000001</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="10">
-        <v>14768</v>
+        <v>35</v>
+      </c>
+      <c r="B19" s="9">
+        <v>4274</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="7">
-        <v>222.75</v>
-      </c>
-      <c r="F19" s="9">
-        <v>185.9</v>
-      </c>
-      <c r="G19" s="9">
-        <v>36.85</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>65.62</v>
+      <c r="E19" s="1">
+        <v>515.5</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>515.5</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>22.397158999999998</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="10">
-        <v>14769</v>
+        <v>35</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1847</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="7">
-        <v>134.30000000000001</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>134.30000000000001</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>28.44</v>
+      <c r="E20" s="1">
+        <v>192.5</v>
+      </c>
+      <c r="F20" s="12">
+        <v>40</v>
+      </c>
+      <c r="G20" s="12">
+        <v>152.5</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>16.058078999999999</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="10">
-        <v>5577</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="9">
+        <v>14763</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>25.71</v>
+      <c r="E21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>33.590000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="10">
-        <v>14771</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="9">
+        <v>6965</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="7">
-        <v>360.9</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>360.9</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>28.498646000000001</v>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>5</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>34.516267999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="10">
-        <v>14773</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="9">
+        <v>14762</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="7">
-        <v>1235.6500000000001</v>
-      </c>
-      <c r="F23" s="9">
-        <v>182.8</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1052.8499999999999</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>26.110413000000001</v>
+      <c r="E23" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>89.7</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>33.590000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="10">
-        <v>8899</v>
+        <v>35</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2550</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="7">
-        <v>977</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>977</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.05</v>
+      <c r="E24" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>7.3</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>30.32</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="10">
-        <v>11035</v>
+        <v>35</v>
+      </c>
+      <c r="B25" s="9">
+        <v>7404</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="7">
-        <v>1452.5003999999999</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1452.5003999999999</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0.05</v>
+      <c r="E25" s="1">
+        <v>36.274999999999999</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>36.274999999999999</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>17.435939000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="10">
-        <v>10947</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="9">
+        <v>14765</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="7">
-        <v>23.5</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>23.5</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.92695499999999997</v>
+      <c r="E26" s="1">
+        <v>348.2</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="H26" s="8">
+        <v>68.8</v>
+      </c>
+      <c r="I26" s="6">
+        <v>30.270765999999998</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="10">
-        <v>14774</v>
+        <v>35</v>
+      </c>
+      <c r="B27" s="9">
+        <v>6978</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="7">
-        <v>182.9</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>182.9</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>24.833238999999999</v>
+      <c r="E27" s="1">
+        <v>782.1</v>
+      </c>
+      <c r="F27" s="12">
+        <v>15</v>
+      </c>
+      <c r="G27" s="12">
+        <v>746</v>
+      </c>
+      <c r="H27" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>30.316987000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="10">
-        <v>14775</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="9">
+        <v>14766</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="7">
-        <v>463.9</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>463.9</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>31.526143000000001</v>
+      <c r="E28" s="1">
+        <v>509.3</v>
+      </c>
+      <c r="F28" s="12">
+        <v>123.5</v>
+      </c>
+      <c r="G28" s="12">
+        <v>385.8</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>32.130000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="10">
-        <v>7015</v>
+        <v>35</v>
+      </c>
+      <c r="B29" s="9">
+        <v>6971</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="7">
-        <v>391.5</v>
-      </c>
-      <c r="F29" s="9">
-        <v>133.30000000000001</v>
-      </c>
-      <c r="G29" s="9">
-        <v>258.2</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>31.045849</v>
+      <c r="E29" s="1">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F29" s="12">
+        <v>17.7</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>33.069305999999997</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="10">
-        <v>14785</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="9">
+        <v>14768</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>49.2</v>
+      <c r="E30" s="1">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="12">
+        <v>33.85</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>65.62</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="10">
-        <v>275439</v>
+        <v>35</v>
+      </c>
+      <c r="B31" s="9">
+        <v>14769</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="7">
-        <v>217.9</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>217.9</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0.05</v>
+      <c r="E31" s="1">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="F31" s="12">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G31" s="12">
+        <v>97.6</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>28.44</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10">
-        <v>1228</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="9">
+        <v>5577</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="7">
-        <v>6142.018</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
-        <v>6142.018</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>23.055081999999999</v>
+      <c r="E32" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>25.71</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="10">
-        <v>6947</v>
+        <v>35</v>
+      </c>
+      <c r="B33" s="9">
+        <v>14771</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="7">
-        <v>149</v>
-      </c>
-      <c r="F33" s="9">
-        <v>29.7</v>
-      </c>
-      <c r="G33" s="9">
-        <v>87.6</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>22.579999000000001</v>
+      <c r="E33" s="1">
+        <v>360.9</v>
+      </c>
+      <c r="F33" s="12">
+        <v>112</v>
+      </c>
+      <c r="G33" s="12">
+        <v>248.9</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>28.498646000000001</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="10">
-        <v>6978</v>
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>14773</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="7">
-        <v>903.9</v>
-      </c>
-      <c r="F34" s="9">
-        <v>121.8</v>
-      </c>
-      <c r="G34" s="9">
-        <v>273.3</v>
-      </c>
-      <c r="H34" s="11">
-        <v>21.1</v>
-      </c>
-      <c r="I34" s="4">
-        <v>30.316987000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="11.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="1">
+      <c r="E34" s="1">
+        <v>1047.6500000000001</v>
+      </c>
+      <c r="F34" s="12">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1014.85</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>26.110413000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9">
+        <v>14774</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>182.9</v>
+      </c>
+      <c r="F35" s="12">
+        <v>15</v>
+      </c>
+      <c r="G35" s="12">
+        <v>167.9</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>24.833238999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9">
+        <v>14775</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6">
-        <v>17455.543399999999</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1299.7</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="D36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>463.9</v>
+      </c>
+      <c r="F36" s="12">
+        <v>447.95</v>
+      </c>
+      <c r="G36" s="12">
+        <v>15.95</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>31.526143000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9">
+        <v>7015</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>258</v>
+      </c>
+      <c r="F37" s="12">
+        <v>50</v>
+      </c>
+      <c r="G37" s="12">
+        <v>208</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>31.045849</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="9">
+        <v>14785</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="9">
+        <v>14786</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="11.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="7">
+        <v>38</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="11">
+        <v>15401.5434</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1368.35</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
